--- a/metrics/R2/average time/Microalbuminuria.xlsx
+++ b/metrics/R2/average time/Microalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9403965167571243</v>
+        <v>0.9384118789487271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9403965167571243</v>
+        <v>0.9384118789487271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9403965167571243</v>
+        <v>0.9384118789487271</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9969661396677152</v>
+        <v>0.9972434430649848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996946930279147</v>
+        <v>0.9973215977407524</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971469744954022</v>
+        <v>0.9971039656659988</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9976825199215265</v>
+        <v>0.9977980701313635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9976810172012281</v>
+        <v>0.9977859968983579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.997695021204274</v>
+        <v>0.997797619383288</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9860838532599849</v>
+        <v>0.9873695119332609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9874104151767233</v>
+        <v>0.9884663141301661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.987983614392475</v>
+        <v>0.9878774617638429</v>
       </c>
     </row>
   </sheetData>
